--- a/0-Update/Templates/BC02_HocVienGhiDanh.xlsx
+++ b/0-Update/Templates/BC02_HocVienGhiDanh.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_StudentManagement\trunk\0_QuanLyHocVien\O2S_QuanLyHocVien\bin\Debug\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_StudentManagement\trunk\0_QuanLyHocVien\O2S_QuanLyHocVien\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -86,12 +86,6 @@
     <t>Khóa học</t>
   </si>
   <si>
-    <t>Tổng tiền</t>
-  </si>
-  <si>
-    <t>Đã đóng</t>
-  </si>
-  <si>
     <t>Miễn giảm (%)</t>
   </si>
   <si>
@@ -126,6 +120,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].MienGiam_Tien</t>
+  </si>
+  <si>
+    <t>Học phí</t>
+  </si>
+  <si>
+    <t>Thực đóng</t>
   </si>
 </sst>
 </file>
@@ -348,10 +348,6 @@
     <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -366,6 +362,12 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -650,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D2" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,45 +676,45 @@
       </c>
       <c r="B1" s="3"/>
       <c r="D1" s="10"/>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="13"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="11"/>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:13" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -732,7 +734,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>17</v>
@@ -741,19 +743,19 @@
         <v>18</v>
       </c>
       <c r="I5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="K5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="L5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="20" t="s">
-        <v>22</v>
-      </c>
       <c r="M5" s="20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -773,69 +775,69 @@
         <v>13</v>
       </c>
       <c r="F6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="23" t="s">
+      <c r="J6" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="31" t="s">
         <v>27</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27">
+      <c r="H7" s="26"/>
+      <c r="I7" s="32">
         <f>SUM(I6:I6)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="27">
-        <f t="shared" ref="J7:M7" si="0">SUM(J6:J6)</f>
+      <c r="J7" s="32">
+        <f t="shared" ref="J7:L7" si="0">SUM(J6:J6)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="27">
-        <f t="shared" si="0"/>
+      <c r="M7" s="32">
+        <f t="shared" ref="M7" si="1">SUM(M6:M6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J9" s="14"/>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="M9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
